--- a/hcsa-licence-be/src/main/resources/template/Nurse-Upload-Template.xlsx
+++ b/hcsa-licence-be/src/main/resources/template/Nurse-Upload-Template.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Code" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="designation">OFFSET(Code!$H$2,,,COUNTA(Code!$H:$H)-1,)</definedName>
     <definedName name="Professional_Board">OFFSET(Code!$D$2,,,COUNTA(Code!$D:$D)-1,)</definedName>
     <definedName name="Professional_Type">OFFSET(Code!$F$2,,,COUNTA(Code!$F:$F)-1,)</definedName>
     <definedName name="salutation">OFFSET(Code!$B$2,,,COUNTA(Code!$B:$B)-1,)</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Instructions </t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t>Name *</t>
-  </si>
-  <si>
-    <t>Designation * (e.g. Doctor, Nurse)</t>
   </si>
   <si>
     <t>Designation - Others</t>
@@ -123,6 +121,14 @@
   </si>
   <si>
     <t>Professional Board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designation * (e.g. Doctor, Nurse)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designation</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -697,60 +703,60 @@
         <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>salutation</formula1>
     </dataValidation>
@@ -760,17 +766,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>Professional_Board</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>designation</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -778,24 +788,28 @@
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:8">
       <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="D2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:8">
       <c r="B3" s="4"/>
     </row>
   </sheetData>
